--- a/data/input_scaling_exponents.xlsx
+++ b/data/input_scaling_exponents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstew\Documents\GitHub\TIMCAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F3F751-9BA7-4CEE-B62E-7C7134A79332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB5244-4F87-4E7E-AACF-6EB157E6DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_scaling" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="586">
   <si>
     <t>Header</t>
   </si>
@@ -2079,14 +2079,29 @@
   <si>
     <t>Could change to 1.32 and scale on direct labor</t>
   </si>
+  <si>
+    <t>Mass Mfg Efficiency</t>
+  </si>
+  <si>
+    <t>Supply Chain Learning Rate</t>
+  </si>
+  <si>
+    <t>Mass Mfg Labor Minimum</t>
+  </si>
+  <si>
+    <t>Mass Mfg Material Minimum</t>
+  </si>
+  <si>
+    <t>Mass Mfg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2640,15 +2655,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2669,14 +2683,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2687,37 +2695,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2741,6 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2928,9 +2932,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2968,7 +2972,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3074,7 +3078,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3216,7 +3220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3230,104 +3234,104 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:25" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>567</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>560</v>
       </c>
       <c r="F2" t="s">
@@ -3336,31 +3340,31 @@
       <c r="G2">
         <v>62</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2">
+        <v>3417</v>
+      </c>
+      <c r="K2" t="s">
         <v>454</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
       <c r="M2">
         <v>19732168</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="15">
-        <v>1</v>
-      </c>
-      <c r="P2" s="15">
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
@@ -3370,274 +3374,274 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" t="s">
         <v>561</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" t="s">
         <v>574</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3">
         <v>9500</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>506</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="J3">
+        <v>3417</v>
+      </c>
+      <c r="K3" t="s">
         <v>454</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3">
         <v>8716768</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="15">
-        <v>1</v>
-      </c>
-      <c r="P3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" t="s">
         <v>562</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>575</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4">
         <v>296000</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>506</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4">
+        <v>3417</v>
+      </c>
+      <c r="K4" t="s">
         <v>454</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="40">
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="31">
         <v>4119742.5980000002</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="15">
-        <v>1</v>
-      </c>
-      <c r="P4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" t="s">
         <v>563</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>575</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5">
         <v>92000</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5">
+        <v>3417</v>
+      </c>
+      <c r="K5" t="s">
         <v>454</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="40">
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="31">
         <v>1366041.348</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>564</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>575</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6">
         <v>150000</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>506</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6">
+        <v>3417</v>
+      </c>
+      <c r="K6" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40">
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="31">
         <v>12778367.800000001</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="15">
-        <v>1</v>
-      </c>
-      <c r="P6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>565</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>575</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7">
         <v>54000</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>506</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7">
+        <v>3417</v>
+      </c>
+      <c r="K7" t="s">
         <v>454</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="40">
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="31">
         <v>1302044.5660000001</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="15">
-        <v>1</v>
-      </c>
-      <c r="P7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>566</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>407</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8">
         <v>416524</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="J8">
+        <v>3417</v>
+      </c>
+      <c r="K8" t="s">
         <v>454</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8">
         <v>29048792.940000001</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="15">
-        <v>1</v>
-      </c>
-      <c r="P8" s="15">
-        <v>1</v>
-      </c>
-      <c r="R8" s="15">
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>71000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3653,7 +3657,7 @@
       <c r="G9">
         <v>4603</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>506</v>
       </c>
       <c r="I9" t="s">
@@ -3690,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +3710,7 @@
       <c r="G10">
         <v>92268</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>506</v>
       </c>
       <c r="I10" t="s">
@@ -3743,7 +3747,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3759,7 +3763,7 @@
       <c r="G11">
         <v>11248</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>506</v>
       </c>
       <c r="I11" t="s">
@@ -3796,7 +3800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="G12">
         <v>92268</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>506</v>
       </c>
       <c r="I12" t="s">
@@ -3843,7 +3847,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="G13">
         <v>9373</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>506</v>
       </c>
       <c r="I13" t="s">
@@ -3887,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3909,7 +3913,7 @@
       <c r="G14">
         <v>9373</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>506</v>
       </c>
       <c r="I14" t="s">
@@ -3937,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3953,7 +3957,7 @@
       <c r="G15">
         <v>92268</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>506</v>
       </c>
       <c r="I15" t="s">
@@ -3984,7 +3988,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4028,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="G18">
         <v>92268</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>506</v>
       </c>
       <c r="I18" t="s">
@@ -4116,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -4132,7 +4136,7 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>506</v>
       </c>
       <c r="I19" t="s">
@@ -4160,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4183,151 +4187,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>576</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" t="s">
         <v>577</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21">
         <v>11248</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>506</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="J21">
+        <v>3417</v>
+      </c>
+      <c r="K21" t="s">
         <v>454</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="15">
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21">
         <v>53362385</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="15">
-        <v>1</v>
-      </c>
-      <c r="P21" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="15">
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
         <v>13050</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21">
         <v>4250</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>576</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" t="s">
         <v>578</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22">
         <v>92268</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>506</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22">
+        <v>3417</v>
+      </c>
+      <c r="K22" t="s">
         <v>454</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22">
         <v>6727151</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="15">
-        <v>1</v>
-      </c>
-      <c r="P22" s="15">
-        <v>1</v>
-      </c>
-      <c r="T22" s="15">
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" t="s">
         <v>579</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23">
         <v>9373</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>506</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="15">
-        <v>3417</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23">
+        <v>3417</v>
+      </c>
+      <c r="K23" t="s">
         <v>454</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="15">
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23">
         <v>15007922</v>
       </c>
-      <c r="N23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="15">
-        <v>1</v>
-      </c>
-      <c r="P23" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -4343,7 +4347,7 @@
       <c r="G24">
         <v>1830</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>506</v>
       </c>
       <c r="I24" t="s">
@@ -4380,7 +4384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="G25">
         <v>5112</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>506</v>
       </c>
       <c r="I25" t="s">
@@ -4433,7 +4437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4449,7 +4453,7 @@
       <c r="G26">
         <v>212000</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>506</v>
       </c>
       <c r="I26" t="s">
@@ -4480,7 +4484,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4496,7 +4500,7 @@
       <c r="G27">
         <v>17040</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>506</v>
       </c>
       <c r="I27" t="s">
@@ -4524,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -4540,7 +4544,7 @@
       <c r="G28">
         <v>6100</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>506</v>
       </c>
       <c r="I28" t="s">
@@ -4574,7 +4578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -4590,7 +4594,7 @@
       <c r="G29">
         <v>6100</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>506</v>
       </c>
       <c r="I29" t="s">
@@ -4618,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="G30">
         <v>212000</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>506</v>
       </c>
       <c r="I30" t="s">
@@ -4662,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4678,7 +4682,7 @@
       <c r="G31">
         <v>212000</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" t="s">
         <v>506</v>
       </c>
       <c r="I31" t="s">
@@ -4706,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4722,7 +4726,7 @@
       <c r="G32">
         <v>17040</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>506</v>
       </c>
       <c r="I32" t="s">
@@ -4750,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4766,7 +4770,7 @@
       <c r="G33">
         <v>212000</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>506</v>
       </c>
       <c r="I33" t="s">
@@ -4797,7 +4801,7 @@
         <v>25980</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4857,7 +4861,7 @@
       <c r="G35">
         <v>212000</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>506</v>
       </c>
       <c r="I35" t="s">
@@ -4885,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -4901,7 +4905,7 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" t="s">
         <v>506</v>
       </c>
       <c r="I36" t="s">
@@ -4929,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4992,7 +4996,7 @@
       <c r="G38">
         <v>1553</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" t="s">
         <v>506</v>
       </c>
       <c r="L38" t="s">
@@ -5020,7 +5024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -5036,7 +5040,7 @@
       <c r="G39">
         <v>3326</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" t="s">
         <v>506</v>
       </c>
       <c r="I39" t="s">
@@ -5073,7 +5077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -5089,7 +5093,7 @@
       <c r="G40">
         <v>36232</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
         <v>506</v>
       </c>
       <c r="I40" t="s">
@@ -5120,7 +5124,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="G41">
         <v>1294</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>506</v>
       </c>
       <c r="I41" t="s">
@@ -5164,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5180,7 +5184,7 @@
       <c r="G42">
         <v>36232</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>506</v>
       </c>
       <c r="I42" t="s">
@@ -5208,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5224,7 +5228,7 @@
       <c r="G43">
         <v>36232</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>506</v>
       </c>
       <c r="I43" t="s">
@@ -5252,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -5268,7 +5272,7 @@
       <c r="G44">
         <v>5544</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" t="s">
         <v>506</v>
       </c>
       <c r="I44" t="s">
@@ -5296,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -5312,7 +5316,7 @@
       <c r="G45">
         <v>36232</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" t="s">
         <v>506</v>
       </c>
       <c r="I45" t="s">
@@ -5340,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5532,7 +5536,7 @@
       <c r="G50">
         <v>36232</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" t="s">
         <v>506</v>
       </c>
       <c r="I50" t="s">
@@ -5563,7 +5567,7 @@
         <v>88745</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -5579,7 +5583,7 @@
       <c r="G51">
         <v>36232</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" t="s">
         <v>506</v>
       </c>
       <c r="I51" t="s">
@@ -5607,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -5623,7 +5627,7 @@
       <c r="G52">
         <v>36232</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>506</v>
       </c>
       <c r="I52" t="s">
@@ -5651,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -5755,7 +5759,7 @@
       <c r="G55">
         <v>36232</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" t="s">
         <v>506</v>
       </c>
       <c r="I55" t="s">
@@ -5783,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -5799,7 +5803,7 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" t="s">
         <v>506</v>
       </c>
       <c r="I56" t="s">
@@ -5827,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5843,7 +5847,7 @@
       <c r="G57">
         <v>2074</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" t="s">
         <v>506</v>
       </c>
       <c r="I57" t="s">
@@ -5880,7 +5884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5896,7 +5900,7 @@
       <c r="G58">
         <v>4428</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" t="s">
         <v>506</v>
       </c>
       <c r="I58" t="s">
@@ -5933,7 +5937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5949,7 +5953,7 @@
       <c r="G59">
         <v>53328</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>506</v>
       </c>
       <c r="I59" t="s">
@@ -5980,7 +5984,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="G60">
         <v>7380</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" t="s">
         <v>506</v>
       </c>
       <c r="I60" t="s">
@@ -6024,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -6040,7 +6044,7 @@
       <c r="G61">
         <v>1728</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" t="s">
         <v>506</v>
       </c>
       <c r="I61" t="s">
@@ -6074,7 +6078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -6090,7 +6094,7 @@
       <c r="G62">
         <v>1728</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>506</v>
       </c>
       <c r="I62" t="s">
@@ -6118,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6134,7 +6138,7 @@
       <c r="G63">
         <v>53328</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>506</v>
       </c>
       <c r="I63" t="s">
@@ -6162,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -6178,7 +6182,7 @@
       <c r="G64">
         <v>53328</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>506</v>
       </c>
       <c r="I64" t="s">
@@ -6206,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6222,7 +6226,7 @@
       <c r="G65">
         <v>53328</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>506</v>
       </c>
       <c r="I65" t="s">
@@ -6250,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -6266,7 +6270,7 @@
       <c r="G66">
         <v>7380</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>506</v>
       </c>
       <c r="I66" t="s">
@@ -6294,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6310,7 +6314,7 @@
       <c r="G67">
         <v>53328</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>506</v>
       </c>
       <c r="I67" t="s">
@@ -6338,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6401,7 +6405,7 @@
       <c r="G69">
         <v>53328</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" t="s">
         <v>506</v>
       </c>
       <c r="I69" t="s">
@@ -6429,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6445,7 +6449,7 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" t="s">
         <v>506</v>
       </c>
       <c r="I70" t="s">
@@ -6473,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -6489,7 +6493,7 @@
       <c r="G71">
         <v>1080</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" t="s">
         <v>506</v>
       </c>
       <c r="I71" t="s">
@@ -6526,7 +6530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -6542,7 +6546,7 @@
       <c r="G72">
         <v>2304</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" t="s">
         <v>506</v>
       </c>
       <c r="I72" t="s">
@@ -6579,7 +6583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -6595,7 +6599,7 @@
       <c r="G73">
         <v>28800</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" t="s">
         <v>506</v>
       </c>
       <c r="I73" t="s">
@@ -6626,7 +6630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -6642,7 +6646,7 @@
       <c r="G74">
         <v>900</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>506</v>
       </c>
       <c r="I74" t="s">
@@ -6670,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -6686,7 +6690,7 @@
       <c r="G75">
         <v>28800</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" t="s">
         <v>506</v>
       </c>
       <c r="I75" t="s">
@@ -6714,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -6730,7 +6734,7 @@
       <c r="G76">
         <v>3840</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>506</v>
       </c>
       <c r="I76" t="s">
@@ -6758,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -6774,7 +6778,7 @@
       <c r="G77">
         <v>28800</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>506</v>
       </c>
       <c r="I77" t="s">
@@ -6802,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -6909,7 +6913,7 @@
       <c r="G80">
         <v>28800</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>506</v>
       </c>
       <c r="I80" t="s">
@@ -6937,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -6959,7 +6963,7 @@
       <c r="G81">
         <v>544</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>506</v>
       </c>
       <c r="I81" t="s">
@@ -6987,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -7003,7 +7007,7 @@
       <c r="G82">
         <v>2268</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>506</v>
       </c>
       <c r="I82" t="s">
@@ -7040,7 +7044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="G83">
         <v>3755</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" t="s">
         <v>506</v>
       </c>
       <c r="I83" t="s">
@@ -7093,7 +7097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -7109,7 +7113,7 @@
       <c r="G84">
         <v>48762</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>506</v>
       </c>
       <c r="I84" t="s">
@@ -7140,7 +7144,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -7156,7 +7160,7 @@
       <c r="G85">
         <v>1890</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>506</v>
       </c>
       <c r="I85" t="s">
@@ -7184,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -7200,7 +7204,7 @@
       <c r="G86">
         <v>48762</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>506</v>
       </c>
       <c r="I86" t="s">
@@ -7228,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -7244,7 +7248,7 @@
       <c r="G87">
         <v>48762</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>506</v>
       </c>
       <c r="I87" t="s">
@@ -7272,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -7288,7 +7292,7 @@
       <c r="G88">
         <v>48762</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" t="s">
         <v>506</v>
       </c>
       <c r="I88" t="s">
@@ -7316,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -7332,7 +7336,7 @@
       <c r="G89">
         <v>6258</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" t="s">
         <v>506</v>
       </c>
       <c r="I89" t="s">
@@ -7360,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -7376,7 +7380,7 @@
       <c r="G90">
         <v>48762</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>506</v>
       </c>
       <c r="I90" t="s">
@@ -7404,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>142</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="G95">
         <v>48762</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" t="s">
         <v>506</v>
       </c>
       <c r="I95" t="s">
@@ -7630,7 +7634,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -7646,7 +7650,7 @@
       <c r="G96">
         <v>48762</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>506</v>
       </c>
       <c r="I96" t="s">
@@ -7674,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -7690,7 +7694,7 @@
       <c r="G97">
         <v>48762</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>506</v>
       </c>
       <c r="I97" t="s">
@@ -7718,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -7778,7 +7782,7 @@
       <c r="G99">
         <v>48762</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" t="s">
         <v>506</v>
       </c>
       <c r="I99" t="s">
@@ -7806,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -7822,7 +7826,7 @@
       <c r="G100">
         <v>1328</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" t="s">
         <v>506</v>
       </c>
       <c r="I100" t="s">
@@ -7859,7 +7863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -7875,7 +7879,7 @@
       <c r="G101">
         <v>979</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" t="s">
         <v>506</v>
       </c>
       <c r="I101" t="s">
@@ -7912,7 +7916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -7928,7 +7932,7 @@
       <c r="G102">
         <v>53136</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" t="s">
         <v>506</v>
       </c>
       <c r="I102" t="s">
@@ -7959,7 +7963,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -7975,7 +7979,7 @@
       <c r="G103">
         <v>3264</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" t="s">
         <v>506</v>
       </c>
       <c r="I103" t="s">
@@ -8003,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -8019,7 +8023,7 @@
       <c r="G104">
         <v>4428</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" t="s">
         <v>506</v>
       </c>
       <c r="I104" t="s">
@@ -8053,7 +8057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -8069,7 +8073,7 @@
       <c r="G105">
         <v>4428</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" t="s">
         <v>506</v>
       </c>
       <c r="I105" t="s">
@@ -8097,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="G106">
         <v>53136</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" t="s">
         <v>506</v>
       </c>
       <c r="I106" t="s">
@@ -8141,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -8157,7 +8161,7 @@
       <c r="G107">
         <v>53136</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" t="s">
         <v>506</v>
       </c>
       <c r="I107" t="s">
@@ -8185,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -8201,7 +8205,7 @@
       <c r="G108">
         <v>53136</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" t="s">
         <v>506</v>
       </c>
       <c r="I108" t="s">
@@ -8229,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -8245,7 +8249,7 @@
       <c r="G109">
         <v>3264</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" t="s">
         <v>506</v>
       </c>
       <c r="I109" t="s">
@@ -8273,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="G110">
         <v>53136</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" t="s">
         <v>506</v>
       </c>
       <c r="I110" t="s">
@@ -8317,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>70240</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -8424,7 +8428,7 @@
       <c r="G113">
         <v>53136</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" t="s">
         <v>506</v>
       </c>
       <c r="I113" t="s">
@@ -8452,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8468,7 +8472,7 @@
       <c r="G114">
         <v>1</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" t="s">
         <v>506</v>
       </c>
       <c r="I114" t="s">
@@ -8496,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>177</v>
       </c>
@@ -8543,7 +8547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>179</v>
       </c>
@@ -8559,7 +8563,7 @@
       <c r="G116">
         <v>288</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" t="s">
         <v>506</v>
       </c>
       <c r="I116" t="s">
@@ -8596,7 +8600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -8612,7 +8616,7 @@
       <c r="G117">
         <v>245</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" t="s">
         <v>506</v>
       </c>
       <c r="I117" t="s">
@@ -8649,7 +8653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -8665,7 +8669,7 @@
       <c r="G118">
         <v>1440</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" t="s">
         <v>506</v>
       </c>
       <c r="I118" t="s">
@@ -8696,7 +8700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -8712,7 +8716,7 @@
       <c r="G119">
         <v>408</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" t="s">
         <v>506</v>
       </c>
       <c r="I119" t="s">
@@ -8740,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>179</v>
       </c>
@@ -8756,7 +8760,7 @@
       <c r="G120">
         <v>240</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" t="s">
         <v>506</v>
       </c>
       <c r="I120" t="s">
@@ -8784,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -8800,7 +8804,7 @@
       <c r="G121">
         <v>1440</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" t="s">
         <v>506</v>
       </c>
       <c r="I121" t="s">
@@ -8828,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -8844,7 +8848,7 @@
       <c r="G122">
         <v>408</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" t="s">
         <v>506</v>
       </c>
       <c r="I122" t="s">
@@ -8872,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -8888,7 +8892,7 @@
       <c r="G123">
         <v>1440</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" t="s">
         <v>506</v>
       </c>
       <c r="I123" t="s">
@@ -8916,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>179</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -8979,7 +8983,7 @@
       <c r="G125">
         <v>1440</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H125" t="s">
         <v>506</v>
       </c>
       <c r="I125" t="s">
@@ -9007,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>190</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>192</v>
       </c>
@@ -9070,7 +9074,7 @@
       <c r="G127">
         <v>1632</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" t="s">
         <v>506</v>
       </c>
       <c r="I127" t="s">
@@ -9098,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -9114,7 +9118,7 @@
       <c r="G128">
         <v>1800</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H128" t="s">
         <v>506</v>
       </c>
       <c r="I128" t="s">
@@ -9154,7 +9158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -9170,7 +9174,7 @@
       <c r="G129">
         <v>504</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="H129" t="s">
         <v>506</v>
       </c>
       <c r="I129" t="s">
@@ -9207,7 +9211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>196</v>
       </c>
@@ -9223,7 +9227,7 @@
       <c r="G130">
         <v>1771</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="H130" t="s">
         <v>506</v>
       </c>
       <c r="I130" t="s">
@@ -9260,7 +9264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -9276,7 +9280,7 @@
       <c r="G131">
         <v>7560</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H131" t="s">
         <v>506</v>
       </c>
       <c r="I131" t="s">
@@ -9307,7 +9311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>196</v>
       </c>
@@ -9323,7 +9327,7 @@
       <c r="G132">
         <v>420</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="H132" t="s">
         <v>506</v>
       </c>
       <c r="I132" t="s">
@@ -9351,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -9367,7 +9371,7 @@
       <c r="G133">
         <v>7560</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="H133" t="s">
         <v>506</v>
       </c>
       <c r="I133" t="s">
@@ -9395,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -9411,7 +9415,7 @@
       <c r="G134">
         <v>7560</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" t="s">
         <v>506</v>
       </c>
       <c r="I134" t="s">
@@ -9439,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>196</v>
       </c>
@@ -9455,7 +9459,7 @@
       <c r="G135">
         <v>2952</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H135" t="s">
         <v>506</v>
       </c>
       <c r="I135" t="s">
@@ -9483,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -9499,7 +9503,7 @@
       <c r="G136">
         <v>7560</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H136" t="s">
         <v>506</v>
       </c>
       <c r="I136" t="s">
@@ -9527,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>196</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -9590,7 +9594,7 @@
       <c r="G138">
         <v>7560</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" t="s">
         <v>506</v>
       </c>
       <c r="I138" t="s">
@@ -9618,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>207</v>
       </c>
@@ -9665,7 +9669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -9709,7 +9713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -9725,7 +9729,7 @@
       <c r="G141">
         <v>540</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" t="s">
         <v>506</v>
       </c>
       <c r="I141" t="s">
@@ -9759,7 +9763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -9775,7 +9779,7 @@
       <c r="G142">
         <v>1152</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="H142" t="s">
         <v>506</v>
       </c>
       <c r="I142" t="s">
@@ -9815,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>215</v>
       </c>
@@ -9831,7 +9835,7 @@
       <c r="G143">
         <v>18630</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" t="s">
         <v>506</v>
       </c>
       <c r="I143" t="s">
@@ -9859,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>215</v>
       </c>
@@ -9875,7 +9879,7 @@
       <c r="G144">
         <v>972</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="H144" t="s">
         <v>506</v>
       </c>
       <c r="I144" t="s">
@@ -9912,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>215</v>
       </c>
@@ -9928,7 +9932,7 @@
       <c r="G145">
         <v>1904</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="H145" t="s">
         <v>506</v>
       </c>
       <c r="I145" t="s">
@@ -9965,7 +9969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>215</v>
       </c>
@@ -9981,7 +9985,7 @@
       <c r="G146">
         <v>18630</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H146" t="s">
         <v>506</v>
       </c>
       <c r="I146" t="s">
@@ -10012,7 +10016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -10028,7 +10032,7 @@
       <c r="G147">
         <v>810</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" t="s">
         <v>506</v>
       </c>
       <c r="I147" t="s">
@@ -10056,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>215</v>
       </c>
@@ -10072,7 +10076,7 @@
       <c r="G148">
         <v>18630</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="H148" t="s">
         <v>506</v>
       </c>
       <c r="I148" t="s">
@@ -10100,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>215</v>
       </c>
@@ -10116,7 +10120,7 @@
       <c r="G149">
         <v>3174</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H149" t="s">
         <v>506</v>
       </c>
       <c r="I149" t="s">
@@ -10144,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>215</v>
       </c>
@@ -10160,7 +10164,7 @@
       <c r="G150">
         <v>18630</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="H150" t="s">
         <v>506</v>
       </c>
       <c r="I150" t="s">
@@ -10188,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>215</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>215</v>
       </c>
@@ -10248,7 +10252,7 @@
       <c r="G152">
         <v>18630</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="H152" t="s">
         <v>506</v>
       </c>
       <c r="I152" t="s">
@@ -10276,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>227</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>229</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>229</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>229</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -10499,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>151650</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>239</v>
       </c>
@@ -10599,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>60280</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -10728,7 +10732,7 @@
         <v>62660</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -10778,7 +10782,7 @@
         <v>120820</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>24550</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>270</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>270</v>
       </c>
@@ -11048,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>270</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>270</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>270</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -11212,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>270</v>
       </c>
@@ -11250,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>270</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -11341,7 +11345,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>290</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>290</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>161600</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>290</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>290</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>614600</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>286730</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -11608,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>290</v>
       </c>
@@ -11649,7 +11653,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>307</v>
       </c>
@@ -11693,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>307</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>307</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>307</v>
       </c>
@@ -11807,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>307</v>
       </c>
@@ -11845,7 +11849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>307</v>
       </c>
@@ -11889,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>307</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>307</v>
       </c>
@@ -11971,7 +11975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>307</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>307</v>
       </c>
@@ -12059,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -12103,7 +12107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>331</v>
       </c>
@@ -12141,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>331</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>331</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>339</v>
       </c>
@@ -12267,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>339</v>
       </c>
@@ -12311,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>346</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>346</v>
       </c>
@@ -12399,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>346</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>346</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -12537,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>363</v>
       </c>
@@ -12587,7 +12591,7 @@
         <v>187090</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>363</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>1088500</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>363</v>
       </c>
@@ -12647,7 +12651,7 @@
       <c r="F207" t="s">
         <v>248</v>
       </c>
-      <c r="G207" s="41">
+      <c r="G207" s="31">
         <f>(3*25700 + 3*12450 + 3*14350 + 3*9990 + 2*16050 + 2*34400)/3/1.1^2</f>
         <v>79440.771349862247</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>56940</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>363</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>363</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>363</v>
       </c>
@@ -12805,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>377</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>377</v>
       </c>
@@ -12887,7 +12891,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>377</v>
       </c>
@@ -12922,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>377</v>
       </c>
@@ -12957,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -12998,7 +13002,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>377</v>
       </c>
@@ -13036,7 +13040,7 @@
         <v>4978650</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>390</v>
       </c>
@@ -13086,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>390</v>
       </c>
@@ -13136,7 +13140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>390</v>
       </c>
@@ -13186,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>390</v>
       </c>
@@ -13215,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>390</v>
       </c>
@@ -13265,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>404</v>
       </c>
@@ -13306,7 +13310,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>404</v>
       </c>
@@ -13344,7 +13348,7 @@
         <v>1196500</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>404</v>
       </c>
@@ -13382,7 +13386,7 @@
         <v>279460</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -13417,7 +13421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>414</v>
       </c>
@@ -13452,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>416</v>
       </c>
@@ -13487,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>418</v>
       </c>
@@ -13516,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>420</v>
       </c>
@@ -13572,7 +13576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>420</v>
       </c>
@@ -13631,7 +13635,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>420</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>428</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>428</v>
       </c>
@@ -13790,7 +13794,7 @@
         <v>708600</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>428</v>
       </c>
@@ -13834,7 +13838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>428</v>
       </c>
@@ -13878,7 +13882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>428</v>
       </c>
@@ -13937,96 +13941,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="17" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="32">
         <v>0.5</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="32">
         <v>1.25</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="33">
         <f t="shared" ref="G2:G14" si="0">LN(F2)-H2*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-0.23500181462286779</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="33">
         <f t="shared" ref="H2:H4" si="1">(LN(F2)-LN(E2))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>0.233751930928767</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="33">
         <f>IF(EXACT(D2,"exponential"),1/G2,IF(EXACT(D2,"lognormal"),EXP(G2),IF(EXACT(D2,"uniform"),AVERAGE(E2:F2))))</f>
         <v>0.79056941504209477</v>
       </c>
@@ -14039,41 +14043,41 @@
       <c r="L2" t="s">
         <v>491</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f>(E2-$C2)/$C2</f>
         <v>-0.5</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <f>(F2-$C2)/$C2</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
       <c r="B3" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.5</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="20">
         <f>LN(F3)-H3*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="20">
         <f>(LN(F3)-LN(E3))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>0.35365301915106706</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I66" si="2">IF(EXACT(D3,"exponential"),1/G3,IF(EXACT(D3,"lognormal"),EXP(G3),IF(EXACT(D3,"uniform"),AVERAGE(E3:F3))))</f>
         <v>1</v>
       </c>
@@ -14086,135 +14090,133 @@
       <c r="L3" t="s">
         <v>491</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>(E3-$C3)/$C3</f>
         <v>-0.5</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f>(F3-$C3)/$C3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" t="s">
         <v>535</v>
       </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="8">
         <v>0.85</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>1.2</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="20">
         <f t="shared" si="0"/>
         <v>9.9013136480898267E-3</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="20">
         <f t="shared" si="1"/>
         <v>8.7971128299241058E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="20">
         <f t="shared" si="2"/>
         <v>1.0099504938362078</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f t="shared" ref="M4" si="3">(E4-$C4)/$C4</f>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f t="shared" ref="N4" si="4">(F4-$C4)/$C4</f>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>1.02</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <f t="shared" ref="G5" si="5">LN(F5)-H5*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>5.7556403550252336E-2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="23">
         <f t="shared" ref="H5:H14" si="6">(LN(F5)-LN(E5))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>1.9262484694550299E-2</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="23">
         <f t="shared" si="2"/>
         <v>1.0592450141492289</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <f t="shared" ref="M5:M18" si="7">(E5-$C5)/$C5</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f t="shared" ref="N5:N18" si="8">(F5-$C5)/$C5</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>444</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>2.5/7*C6</f>
         <v>4.6785714285714292E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f>12.5/7*C6</f>
         <v>0.23392857142857146</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>-2.2574584167450933</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <f t="shared" si="6"/>
         <v>0.41057844050430048</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="24">
         <f t="shared" si="2"/>
         <v>0.10461603751874018</v>
       </c>
@@ -14224,46 +14226,46 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" t="s">
         <v>545</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f t="shared" si="7"/>
         <v>-0.64285714285714279</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" si="8"/>
         <v>0.78571428571428592</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
       <c r="B7" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.16</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" ref="E7:E8" si="9">2.5/7*C7</f>
         <v>5.7142857142857148E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" ref="F7:F8" si="10">12.5/7*C7</f>
         <v>0.28571428571428575</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>-2.0574819247124179</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="24">
         <f t="shared" si="6"/>
         <v>0.41057844050430048</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="24">
         <f t="shared" si="2"/>
         <v>0.12777531299998801</v>
       </c>
@@ -14276,43 +14278,43 @@
       <c r="L7" t="s">
         <v>545</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" si="7"/>
         <v>-0.64285714285714279</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="8"/>
         <v>0.78571428571428592</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
       <c r="B8" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="9"/>
         <v>2.5357142857142856E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="10"/>
         <v>0.12678571428571428</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>-2.8699758629049299</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="24">
         <f t="shared" si="6"/>
         <v>0.41057844050430042</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="24">
         <f t="shared" si="2"/>
         <v>5.6700295143744653E-2</v>
       </c>
@@ -14325,141 +14327,141 @@
       <c r="L8" t="s">
         <v>545</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="7"/>
         <v>-0.64285714285714279</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="8"/>
         <v>0.78571428571428581</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
       <c r="B9" t="s">
         <v>481</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" ref="E9" si="11">C9*0.85</f>
         <v>0.46750000000000003</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" ref="F9" si="12">C9*1.2</f>
         <v>0.66</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>-0.58793568710753052</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="24">
         <f t="shared" si="6"/>
         <v>8.7971128299241058E-2</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="24">
         <f t="shared" si="2"/>
         <v>0.55547277160991437</v>
       </c>
       <c r="J9" t="s">
         <v>493</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" t="s">
         <v>495</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.73</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>C10*0.85</f>
         <v>0.62049999999999994</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>C10*1.2</f>
         <v>0.876</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>-0.30480943119161041</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="26">
         <f t="shared" si="6"/>
         <v>8.7971128299241086E-2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="26">
         <f t="shared" si="2"/>
         <v>0.73726386050043169</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="7"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="8"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0.36</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>0.34</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>0.38</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>-1.0231968438168177</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="20">
         <f t="shared" si="6"/>
         <v>2.8374407894113836E-2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="20">
         <f t="shared" si="2"/>
         <v>0.35944401511222857</v>
       </c>
@@ -14472,41 +14474,41 @@
       <c r="L11" t="s">
         <v>484</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="7"/>
         <v>-5.5555555555555455E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" si="8"/>
         <v>5.5555555555555608E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
       <c r="B12" t="s">
         <v>540</v>
       </c>
       <c r="C12">
         <v>0.36</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>0.34</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>0.38</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>-1.0231968438168177</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <f t="shared" si="6"/>
         <v>2.8374407894113836E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="20">
         <f t="shared" si="2"/>
         <v>0.35944401511222857</v>
       </c>
@@ -14519,41 +14521,41 @@
       <c r="L12" t="s">
         <v>484</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="7"/>
         <v>-5.5555555555555455E-2</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" si="8"/>
         <v>5.5555555555555608E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
         <v>541</v>
       </c>
       <c r="C13">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.72</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>0.86</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>-0.23966347835330987</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="20">
         <f t="shared" si="6"/>
         <v>4.5327663834381381E-2</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="20">
         <f t="shared" si="2"/>
         <v>0.78689262291624007</v>
       </c>
@@ -14566,1215 +14568,1207 @@
       <c r="L13" t="s">
         <v>484</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="7"/>
         <v>-8.2802547770700702E-2</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="8"/>
         <v>9.5541401273885287E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>3.661</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>3.25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>4.05</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
         <v>1.2886859387300471</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="23">
         <f t="shared" si="6"/>
         <v>5.6139267484663441E-2</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="23">
         <f t="shared" si="2"/>
         <v>3.628015986734348</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <f t="shared" si="7"/>
         <v>-0.11226440863152146</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f t="shared" si="8"/>
         <v>0.10625512155148861</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>529</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0.25</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <f>C15*0.85</f>
         <v>0.21249999999999999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <f>C15*1.2</f>
         <v>0.3</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="20">
         <f>LN(F15)-H15*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-1.3763930474718009</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="20">
         <f>(LN(F15)-LN(E15))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241017E-2</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="20">
         <f t="shared" si="2"/>
         <v>0.2524876234590519</v>
       </c>
       <c r="J15" t="s">
         <v>484</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L15" t="s">
         <v>495</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
       <c r="B16" t="s">
         <v>530</v>
       </c>
       <c r="C16">
         <v>0.71</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E16">
         <f>C16*0.85</f>
         <v>0.60349999999999993</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <f>C16*1.2</f>
         <v>0.85199999999999998</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="20">
         <f t="shared" ref="G16:G24" si="13">LN(F16)-H16*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-0.33258899529868619</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="20">
         <f t="shared" ref="H16:H24" si="14">(LN(F16)-LN(E16))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.79711282992411E-2</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="20">
         <f t="shared" si="2"/>
         <v>0.71706485062370751</v>
       </c>
       <c r="J16" t="s">
         <v>484</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L16" t="s">
         <v>495</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="7"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="8"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
       <c r="B17" t="s">
         <v>531</v>
       </c>
       <c r="C17">
         <v>0.76</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E18" si="15">C17*0.85</f>
         <v>0.64600000000000002</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <f t="shared" ref="F17:F18" si="16">C17*1.2</f>
         <v>0.91199999999999992</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="20">
         <f t="shared" si="13"/>
         <v>-0.26453553205367047</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="20">
         <f t="shared" si="14"/>
         <v>8.797112829924103E-2</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="20">
         <f t="shared" si="2"/>
         <v>0.76756237531551785</v>
       </c>
       <c r="J17" t="s">
         <v>484</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L17" t="s">
         <v>495</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" si="8"/>
         <v>0.19999999999999987</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
       <c r="B18" t="s">
         <v>532</v>
       </c>
       <c r="C18">
         <v>0.52</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E18">
         <f t="shared" si="15"/>
         <v>0.442</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <f t="shared" si="16"/>
         <v>0.624</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="20">
         <f t="shared" si="13"/>
         <v>-0.64402515375857416</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="20">
         <f t="shared" si="14"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="20">
         <f t="shared" si="2"/>
         <v>0.5251742567948281</v>
       </c>
       <c r="J18" t="s">
         <v>484</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L18" t="s">
         <v>495</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="7"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.5</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f>C19*0.85</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f>C19*1.2</f>
         <v>0.6</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="23">
         <f t="shared" si="13"/>
         <v>-0.68324586691185552</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="23">
         <f t="shared" si="14"/>
         <v>8.7971128299241044E-2</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="23">
         <f t="shared" si="2"/>
         <v>0.50497524691810391</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <f t="shared" ref="M19:N64" si="17">(E19-$C19)/$C19</f>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <f t="shared" si="17"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <v>0.54833943885426195</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <f t="shared" ref="E20:E31" si="18">C20*0.85</f>
         <v>0.46608852302612264</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="20">
         <f t="shared" ref="F20:F31" si="19">C20*1.2</f>
         <v>0.6580073266251143</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="20">
         <f t="shared" si="13"/>
         <v>-0.59095945617605117</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="20">
         <f t="shared" si="14"/>
         <v>8.7971128299241044E-2</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="20">
         <f t="shared" si="2"/>
         <v>0.5537956870607309</v>
       </c>
       <c r="J20" t="s">
         <v>484</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L20" t="s">
         <v>495</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999993</v>
       </c>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="41"/>
       <c r="B21" t="s">
         <v>525</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.2678830011089926</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="20">
         <f t="shared" si="18"/>
         <v>0.22770055094264371</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="20">
         <f t="shared" si="19"/>
         <v>0.3214596013307911</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="20">
         <f t="shared" si="13"/>
         <v>-1.307303643170719</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="20">
         <f t="shared" si="14"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="20">
         <f t="shared" si="2"/>
         <v>0.27054856926035248</v>
       </c>
       <c r="J21" t="s">
         <v>484</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L21" t="s">
         <v>495</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <f t="shared" si="17"/>
         <v>-0.15</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999993</v>
       </c>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
       <c r="B22" t="s">
         <v>526</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0.90623427722694716</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="20">
         <f t="shared" si="18"/>
         <v>0.77029913564290509</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="20">
         <f t="shared" si="19"/>
         <v>1.0874811326723366</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="20">
         <f t="shared" si="13"/>
         <v>-8.8556108582479878E-2</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="20">
         <f t="shared" si="14"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="20">
         <f t="shared" si="2"/>
         <v>0.91525175581665408</v>
       </c>
       <c r="J22" t="s">
         <v>484</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L22" t="s">
         <v>495</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <f t="shared" si="17"/>
         <v>-0.15</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="41"/>
       <c r="B23" t="s">
         <v>527</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>1.0099306954615697</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="20">
         <f t="shared" si="18"/>
         <v>0.85844109114233413</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="20">
         <f t="shared" si="19"/>
         <v>1.2119168345538835</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="20">
         <f t="shared" si="13"/>
         <v>1.9783023792029342E-2</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="20">
         <f t="shared" si="14"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="20">
         <f t="shared" si="2"/>
         <v>1.0199800046217571</v>
       </c>
       <c r="J23" t="s">
         <v>484</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L23" t="s">
         <v>495</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000008</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
+      <c r="B24" t="s">
         <v>528</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="8">
         <v>0.5783708145703973</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="20">
         <f t="shared" si="18"/>
         <v>0.4916151923848377</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="20">
         <f t="shared" si="19"/>
         <v>0.69404497748447669</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="20">
         <f t="shared" si="13"/>
         <v>-0.53763875466577149</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="20">
         <f t="shared" si="14"/>
         <v>8.797112829924103E-2</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="20">
         <f t="shared" si="2"/>
         <v>0.58412588979582247</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" t="s">
         <v>484</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <f t="shared" si="17"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <f t="shared" si="17"/>
         <v>0.19999999999999987</v>
       </c>
-      <c r="P24" s="15"/>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>0.60509016529070037</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="23">
         <f t="shared" ref="E25" si="20">C25*0.85</f>
         <v>0.51432664049709531</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="23">
         <f t="shared" ref="F25" si="21">C25*1.2</f>
         <v>0.72610819834884044</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="23">
         <f t="shared" ref="G25" si="22">LN(F25)-H25*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-0.49247648486925255</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="23">
         <f t="shared" ref="H25" si="23">(LN(F25)-LN(E25))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="23">
         <f t="shared" ref="I25" si="24">IF(EXACT(D25,"exponential"),1/G25,IF(EXACT(D25,"lognormal"),EXP(G25),IF(EXACT(D25,"uniform"),AVERAGE(E25:F25))))</f>
         <v>0.61111111125077544</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <f t="shared" ref="M25" si="25">(E25-$C25)/$C25</f>
         <v>-0.15</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <f t="shared" ref="N25" si="26">(F25-$C25)/$C25</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>521</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <f t="shared" si="18"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="20">
         <f>LN(F26)-H26*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-0.68324586691185552</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="20">
         <f>(LN(F26)-LN(E26))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241044E-2</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="20">
         <f t="shared" si="2"/>
         <v>0.50497524691810391</v>
       </c>
       <c r="J26" t="s">
         <v>484</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L26" t="s">
         <v>495</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.1</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="18"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="19"/>
         <v>0.12</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="23">
         <f>LN(F27)-H27*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-2.292683779345956</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="23">
         <f>(LN(F27)-LN(E27))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="23">
         <f t="shared" si="2"/>
         <v>0.10099504938362076</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <f t="shared" si="17"/>
         <v>-0.15</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <f t="shared" si="17"/>
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>476</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>1.48</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E28">
         <f t="shared" si="18"/>
         <v>1.258</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <f t="shared" si="19"/>
         <v>1.776</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="20">
         <f>LN(F28)-H28*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>0.40194340142411356</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="20">
         <f>(LN(F28)-LN(E28))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="20">
         <f t="shared" si="2"/>
         <v>1.4947267308775876</v>
       </c>
       <c r="J28" t="s">
         <v>498</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L28" t="s">
         <v>495</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <f t="shared" ref="M28" si="27">(E28-$C28)/$C28</f>
         <v>-0.15</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <f t="shared" si="17"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="38"/>
       <c r="B29" t="s">
         <v>522</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>0</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="9">
         <v>0.2</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="20">
         <v>18.45</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25">
+      <c r="I29" s="20">
         <f t="shared" si="2"/>
         <v>5.4200542005420058E-2</v>
       </c>
       <c r="J29" t="s">
         <v>498</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L29" t="s">
         <v>495</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>0</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="38"/>
       <c r="B30" t="s">
         <v>477</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E30">
         <f t="shared" si="18"/>
         <v>6.8</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <f t="shared" si="19"/>
         <v>9.6</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="20">
         <f>LN(F30)-H30*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>2.0893428553279261</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="20">
         <f>(LN(F30)-LN(E30))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="20">
         <f t="shared" si="2"/>
         <v>8.0796039506896644</v>
       </c>
       <c r="J30" t="s">
         <v>498</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L30" t="s">
         <v>495</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>87</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="18"/>
         <v>73.95</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="19"/>
         <v>104.39999999999999</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="23">
         <f>LN(F31)-H31*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>4.4758094323026736</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="23">
         <f>(LN(F31)-LN(E31))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241183E-2</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="23">
         <f t="shared" si="2"/>
         <v>87.865692963750078</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <f t="shared" si="17"/>
         <v>-0.14999999999999997</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <f t="shared" si="17"/>
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="16">
         <v>0.6</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <v>0.6</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <v>0.8</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="23">
         <f>LN(F32)-H32*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-0.36698458754010022</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="23">
         <f>(LN(F32)-LN(E32))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>7.3389632340435995E-2</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="23">
         <f t="shared" si="2"/>
         <v>0.69282032302755092</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <f t="shared" si="17"/>
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>3.25</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <f t="shared" ref="E33:E37" si="28">C33*0.85</f>
         <v>2.7624999999999997</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <f t="shared" ref="F33:F37" si="29">C33*1.2</f>
         <v>3.9</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="20">
         <f t="shared" ref="G33:G36" si="30">LN(F33)-H33*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>1.1885563099897358</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="20">
         <f t="shared" ref="H33:H36" si="31">(LN(F33)-LN(E33))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="20">
         <f t="shared" si="2"/>
         <v>3.2823391049676749</v>
       </c>
       <c r="J33" t="s">
         <v>484</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L33" t="s">
         <v>495</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000008</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="38"/>
       <c r="B34" t="s">
         <v>502</v>
       </c>
       <c r="C34">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E34">
         <f t="shared" si="28"/>
         <v>4.1310000000000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <f t="shared" si="29"/>
         <v>5.8319999999999999</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="20">
         <f t="shared" si="30"/>
         <v>1.5909397515604922</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="20">
         <f t="shared" si="31"/>
         <v>8.7971128299241017E-2</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="20">
         <f t="shared" si="2"/>
         <v>4.9083594000439694</v>
       </c>
       <c r="J34" t="s">
         <v>484</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L34" t="s">
         <v>495</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <f t="shared" si="17"/>
         <v>0.1999999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="38"/>
       <c r="B35" t="s">
         <v>503</v>
       </c>
       <c r="C35">
         <v>4.5599999999999996</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="8" t="s">
         <v>538</v>
       </c>
       <c r="E35">
         <f t="shared" si="28"/>
         <v>3.8759999999999994</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <f t="shared" si="29"/>
         <v>5.4719999999999995</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="20">
         <f t="shared" si="30"/>
         <v>1.5272239371743845</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="20">
         <f t="shared" si="31"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="20">
         <f t="shared" si="2"/>
         <v>4.6053742518931076</v>
       </c>
       <c r="J35" t="s">
         <v>484</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L35" t="s">
         <v>495</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="38"/>
+      <c r="B36" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>28.98</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="28"/>
         <v>24.632999999999999</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="29"/>
         <v>34.775999999999996</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="23">
         <f t="shared" si="30"/>
         <v>3.3765072505406257</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="23">
         <f t="shared" si="31"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="23">
         <f t="shared" si="2"/>
         <v>29.268365311373287</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <f t="shared" si="17"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <f t="shared" si="17"/>
         <v>0.19999999999999984</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="11">
         <v>17866</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="11">
         <f t="shared" si="28"/>
         <v>15186.1</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="11">
         <f t="shared" si="29"/>
         <v>21439.200000000001</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="25">
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="20">
         <f t="shared" si="2"/>
         <v>18312.650000000001</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <f t="shared" si="17"/>
         <v>-0.14999999999999997</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <f t="shared" si="17"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="38"/>
+      <c r="B38" t="s">
         <v>506</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -15787,117 +15781,111 @@
       <c r="L38" t="s">
         <v>496</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="38"/>
+      <c r="B39" t="s">
         <v>454</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>0.8</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>0.58799999999999997</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>0.8</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25">
+      <c r="I39" s="20">
         <f t="shared" si="2"/>
         <v>0.69399999999999995</v>
       </c>
       <c r="J39" t="s">
         <v>483</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L39" t="s">
         <v>484</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <f t="shared" si="17"/>
         <v>-0.26500000000000007</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="38"/>
+      <c r="B40" t="s">
         <v>455</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>0.8</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>0.8</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25">
+      <c r="I40" s="20">
         <f t="shared" si="2"/>
         <v>0.67700000000000005</v>
       </c>
       <c r="J40" t="s">
         <v>483</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L40" t="s">
         <v>484</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <f t="shared" si="17"/>
         <v>-0.3075</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="38"/>
+      <c r="B41" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>0.85</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>0.65</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>0.85</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25">
+      <c r="I41" s="20">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -15910,84 +15898,82 @@
       <c r="L41" t="s">
         <v>485</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <f t="shared" si="17"/>
         <v>-0.23529411764705876</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="38"/>
+      <c r="B42" t="s">
         <v>456</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>34.4</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <f>C42*0.85</f>
         <v>29.24</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <f>C42*1.2</f>
         <v>41.279999999999994</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="20">
         <f t="shared" ref="G42" si="32">LN(F42)-H42*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>3.5479578780274421</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="20">
         <f t="shared" ref="H42" si="33">(LN(F42)-LN(E42))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="20">
         <f t="shared" si="2"/>
         <v>34.742296987965531</v>
       </c>
       <c r="J42" t="s">
         <v>497</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L42" t="s">
         <v>495</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999987</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="38"/>
+      <c r="B43" t="s">
         <v>457</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>1.8</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25">
+      <c r="I43" s="20">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -16000,852 +15986,822 @@
       <c r="L43" t="s">
         <v>485</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="7">
         <f t="shared" si="17"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <f t="shared" si="17"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="38"/>
+      <c r="B44" t="s">
         <v>458</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>0.92</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>0.41</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>0.92</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25">
+      <c r="I44" s="20">
         <f t="shared" si="2"/>
         <v>0.66500000000000004</v>
       </c>
       <c r="J44" t="s">
         <v>485</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="7" t="s">
         <v>486</v>
       </c>
       <c r="L44" t="s">
         <v>485</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <f t="shared" si="17"/>
         <v>-0.55434782608695654</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" t="s">
         <v>459</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>39.700000000000003</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <f>C45*0.85</f>
         <v>33.745000000000005</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <f>C45*1.2</f>
         <v>47.64</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="20">
         <f t="shared" ref="G45" si="34">LN(F45)-H45*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>3.6912525013412347</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="20">
         <f t="shared" ref="H45" si="35">(LN(F45)-LN(E45))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299240961E-2</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="20">
         <f t="shared" si="2"/>
         <v>40.095034605297457</v>
       </c>
       <c r="J45" t="s">
         <v>497</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L45" t="s">
         <v>495</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <f t="shared" si="17"/>
         <v>-0.14999999999999994</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="38"/>
+      <c r="B46" t="s">
         <v>507</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>1.2</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>0.65</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>1.2</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25">
+      <c r="I46" s="20">
         <f t="shared" si="2"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="J46" t="s">
         <v>485</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="7" t="s">
         <v>486</v>
       </c>
       <c r="L46" t="s">
         <v>485</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="7">
         <f t="shared" si="17"/>
         <v>-0.45833333333333331</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="38"/>
+      <c r="B47" t="s">
         <v>460</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>17</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <f>C47*0.85</f>
         <v>14.45</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <f>C47*1.2</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="20">
         <f t="shared" ref="G47:G48" si="36">LN(F47)-H47*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>2.843114657704306</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="20">
         <f t="shared" ref="H47:H48" si="37">(LN(F47)-LN(E47))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="20">
         <f t="shared" si="2"/>
         <v>17.169158395215533</v>
       </c>
       <c r="J47" t="s">
         <v>497</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L47" t="s">
         <v>495</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000005</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
         <f t="shared" si="17"/>
         <v>0.19999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
+      <c r="B48" t="s">
         <v>461</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>12.98</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <f>C48*0.85</f>
         <v>11.032999999999999</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <f>C48*1.2</f>
         <v>15.576000000000001</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="20">
         <f t="shared" si="36"/>
         <v>2.5733110249240339</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="20">
         <f t="shared" si="37"/>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="20">
         <f t="shared" si="2"/>
         <v>13.109157409993978</v>
       </c>
       <c r="J48" t="s">
         <v>497</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L48" t="s">
         <v>495</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <f t="shared" si="17"/>
         <v>-0.15000000000000008</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="38"/>
+      <c r="B49" t="s">
         <v>462</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>0.75</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>0.71</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>0.79</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25">
+      <c r="I49" s="20">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="J49" t="s">
         <v>485</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L49" t="s">
         <v>495</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="7">
         <f t="shared" si="17"/>
         <v>-5.3333333333333378E-2</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <f t="shared" si="17"/>
         <v>5.3333333333333378E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="38"/>
+      <c r="B50" t="s">
         <v>463</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>0.75</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>0.72</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>0.79</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25">
+      <c r="I50" s="20">
         <f t="shared" si="2"/>
         <v>0.755</v>
       </c>
       <c r="J50" t="s">
         <v>485</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L50" t="s">
         <v>495</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="7">
         <f t="shared" si="17"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
         <f t="shared" si="17"/>
         <v>5.3333333333333378E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="38"/>
+      <c r="B51" t="s">
         <v>464</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>1.26</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>1.22</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>1.3</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25">
+      <c r="I51" s="20">
         <f t="shared" si="2"/>
         <v>1.26</v>
       </c>
       <c r="J51" t="s">
         <v>484</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L51" t="s">
         <v>495</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="7">
         <f t="shared" si="17"/>
         <v>-3.1746031746031772E-2</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
         <f t="shared" si="17"/>
         <v>3.1746031746031772E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="38"/>
+      <c r="B52" t="s">
         <v>517</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="27">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
         <f t="shared" ref="G52" si="38">LN(F52)-H52*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="20">
         <f t="shared" ref="H52" si="39">(LN(F52)-LN(E52))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>0</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>484</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="7" t="s">
         <v>496</v>
       </c>
       <c r="L52" t="s">
         <v>496</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="38"/>
+      <c r="B53" t="s">
         <v>465</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>0.6</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <v>0.41</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>0.6</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25">
+      <c r="I53" s="20">
         <f t="shared" si="2"/>
         <v>0.505</v>
       </c>
       <c r="J53" t="s">
         <v>485</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="7" t="s">
         <v>486</v>
       </c>
       <c r="L53" t="s">
         <v>485</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="7">
         <f t="shared" si="17"/>
         <v>-0.31666666666666671</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="38"/>
+      <c r="B54" t="s">
         <v>466</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>0.85</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>0.81</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>0.89</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25">
+      <c r="I54" s="20">
         <f t="shared" si="2"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="J54" t="s">
         <v>485</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L54" t="s">
         <v>495</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="7">
         <f t="shared" si="17"/>
         <v>-4.7058823529411674E-2</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
         <f t="shared" si="17"/>
         <v>4.7058823529411806E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="38"/>
+      <c r="B55" t="s">
         <v>467</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>1.21</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <v>1.17</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>1.25</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25">
+      <c r="I55" s="20">
         <f t="shared" si="2"/>
         <v>1.21</v>
       </c>
       <c r="J55" t="s">
         <v>487</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L55" t="s">
         <v>495</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="7">
         <f t="shared" si="17"/>
         <v>-3.305785123966945E-2</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="7">
         <f t="shared" si="17"/>
         <v>3.305785123966945E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="38"/>
+      <c r="B56" t="s">
         <v>470</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>1.31</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>1.27</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>1.35</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25">
+      <c r="I56" s="20">
         <f t="shared" si="2"/>
         <v>1.31</v>
       </c>
       <c r="J56" t="s">
         <v>487</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L56" t="s">
         <v>495</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="7">
         <f t="shared" si="17"/>
         <v>-3.0534351145038195E-2</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="7">
         <f t="shared" si="17"/>
         <v>3.0534351145038195E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="38"/>
+      <c r="B57" t="s">
         <v>468</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>0.6</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>0.64</v>
       </c>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25">
+      <c r="I57" s="20">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="J57" t="s">
         <v>485</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L57" t="s">
         <v>495</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="7">
         <f t="shared" si="17"/>
         <v>-6.6666666666666541E-2</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="7">
         <f t="shared" si="17"/>
         <v>6.6666666666666735E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="38"/>
+      <c r="B58" t="s">
         <v>469</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>0.6</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <v>0.6</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>0.83</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25">
+      <c r="I58" s="20">
         <f t="shared" si="2"/>
         <v>0.71499999999999997</v>
       </c>
       <c r="J58" t="s">
         <v>485</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="7" t="s">
         <v>485</v>
       </c>
       <c r="L58" t="s">
         <v>486</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="7">
         <f t="shared" si="17"/>
         <v>0.3833333333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="38"/>
+      <c r="B59" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <f>C59*0.85</f>
         <v>1.9209999999999998</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <f>C59*1.2</f>
         <v>2.7119999999999997</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="20">
         <f t="shared" ref="G59" si="40">LN(F59)-H59*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>0.82526612693228429</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="20">
         <f t="shared" ref="H59" si="41">(LN(F59)-LN(E59))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>8.7971128299241072E-2</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="20">
         <f t="shared" si="2"/>
         <v>2.2824881160698296</v>
       </c>
       <c r="J59" t="s">
         <v>484</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="7" t="s">
         <v>495</v>
       </c>
       <c r="L59" t="s">
         <v>495</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="7">
         <f t="shared" si="17"/>
         <v>-0.15</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="7">
         <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="38"/>
+      <c r="B60" t="s">
         <v>471</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>0.8</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <v>0.8</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25">
+      <c r="I60" s="20">
         <f t="shared" si="2"/>
         <v>0.67700000000000005</v>
       </c>
       <c r="J60" t="s">
         <v>483</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L60" t="s">
         <v>483</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="7">
         <f t="shared" si="17"/>
         <v>-0.3075</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="38"/>
+      <c r="B61" t="s">
         <v>472</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>0.8</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>0.6</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25">
+      <c r="I61" s="20">
         <f t="shared" si="2"/>
         <v>0.71699999999999997</v>
       </c>
       <c r="J61" t="s">
         <v>484</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="7" t="s">
         <v>483</v>
       </c>
       <c r="L61" t="s">
         <v>484</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="7">
         <f t="shared" si="17"/>
         <v>-0.25000000000000006</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="7">
         <f t="shared" si="17"/>
         <v>4.2499999999999899E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="48"/>
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="38"/>
+      <c r="B62" t="s">
         <v>473</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>0.6</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>0.48699999999999999</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>0.6</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25">
+      <c r="I62" s="20">
         <f t="shared" si="2"/>
         <v>0.54349999999999998</v>
       </c>
       <c r="J62" t="s">
         <v>485</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L62" t="s">
         <v>485</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="7">
         <f t="shared" si="17"/>
         <v>-0.18833333333333332</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="38"/>
+      <c r="B63" t="s">
         <v>474</v>
       </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -16858,76 +16814,72 @@
       <c r="L63" t="s">
         <v>496</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="48"/>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="38"/>
+      <c r="B64" t="s">
         <v>509</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>0.8</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <v>0.59499999999999997</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>0.8</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25">
+      <c r="I64" s="20">
         <f t="shared" si="2"/>
         <v>0.69750000000000001</v>
       </c>
       <c r="J64" t="s">
         <v>483</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L64" t="s">
         <v>483</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="7">
         <f t="shared" si="17"/>
         <v>-0.25625000000000009</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="7">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="48"/>
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="38"/>
+      <c r="B65" t="s">
         <v>475</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>0.8</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <v>0.8</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>1.0589999999999999</v>
       </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25">
+      <c r="I65" s="20">
         <f t="shared" si="2"/>
         <v>0.92949999999999999</v>
       </c>
@@ -16940,105 +16892,105 @@
       <c r="L65" t="s">
         <v>484</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="7">
         <f t="shared" ref="M65:N67" si="42">(E65-$C65)/$C65</f>
         <v>0</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="7">
         <f t="shared" si="42"/>
         <v>0.32374999999999987</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="49"/>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="39"/>
+      <c r="B66" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>0.8</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>0.8</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>1.0589999999999999</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29">
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23">
         <f t="shared" si="2"/>
         <v>0.92949999999999999</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="L66" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="5">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="N66" s="6">
+      <c r="N66" s="5">
         <f t="shared" si="42"/>
         <v>0.32374999999999987</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" t="s">
         <v>554</v>
       </c>
-      <c r="C67" s="37">
-        <v>1</v>
-      </c>
-      <c r="D67" s="38" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="8">
         <v>0.85</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G67" s="20">
         <f t="shared" ref="G67" si="43">LN(F67)-H67*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H67" s="27">
+      <c r="H67" s="20">
         <f t="shared" ref="H67" si="44">(LN(F67)-LN(E67))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="20">
         <f t="shared" ref="I67" si="45">IF(EXACT(D67,"exponential"),1/G67,IF(EXACT(D67,"lognormal"),EXP(G67),IF(EXACT(D67,"uniform"),AVERAGE(E67:F67))))</f>
         <v>0.98868599666425938</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="4">
         <f t="shared" si="42"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="4">
         <f t="shared" si="42"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="37" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" s="35"/>
+      <c r="B68" t="s">
         <v>555</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>538</v>
       </c>
       <c r="E68">
@@ -17047,28 +16999,28 @@
       <c r="F68">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G68" s="27">
-        <f t="shared" ref="G68:G72" si="46">LN(F68)-H68*_xlfn.NORM.INV(0.975,0,1)</f>
+      <c r="G68" s="20">
+        <f t="shared" ref="G68:G76" si="46">LN(F68)-H68*_xlfn.NORM.INV(0.975,0,1)</f>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H68" s="27">
-        <f t="shared" ref="H68:H72" si="47">(LN(F68)-LN(E68))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
+      <c r="H68" s="20">
+        <f t="shared" ref="H68:H76" si="47">(LN(F68)-LN(E68))/(_xlfn.NORM.INV(0.975,0,1) - _xlfn.NORM.INV(0.025,0,1))</f>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I68" s="27">
-        <f t="shared" ref="I68:I72" si="48">IF(EXACT(D68,"exponential"),1/G68,IF(EXACT(D68,"lognormal"),EXP(G68),IF(EXACT(D68,"uniform"),AVERAGE(E68:F68))))</f>
+      <c r="I68" s="20">
+        <f t="shared" ref="I68:I76" si="48">IF(EXACT(D68,"exponential"),1/G68,IF(EXACT(D68,"lognormal"),EXP(G68),IF(EXACT(D68,"uniform"),AVERAGE(E68:F68))))</f>
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="37" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="35"/>
+      <c r="B69" t="s">
         <v>556</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>538</v>
       </c>
       <c r="E69">
@@ -17077,28 +17029,28 @@
       <c r="F69">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="20">
         <f t="shared" si="46"/>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H69" s="27">
+      <c r="H69" s="20">
         <f t="shared" si="47"/>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="20">
         <f t="shared" si="48"/>
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="45"/>
-      <c r="B70" s="37" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="35"/>
+      <c r="B70" t="s">
         <v>557</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>538</v>
       </c>
       <c r="E70">
@@ -17107,28 +17059,28 @@
       <c r="F70">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="20">
         <f t="shared" si="46"/>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H70" s="20">
         <f t="shared" si="47"/>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="20">
         <f t="shared" si="48"/>
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="37" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="35"/>
+      <c r="B71" t="s">
         <v>558</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>538</v>
       </c>
       <c r="E71">
@@ -17137,51 +17089,174 @@
       <c r="F71">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="20">
         <f t="shared" si="46"/>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H71" s="27">
+      <c r="H71" s="20">
         <f t="shared" si="47"/>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I71" s="27">
+      <c r="I71" s="20">
         <f t="shared" si="48"/>
         <v>0.98868599666425938</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
-      <c r="B72" s="39" t="s">
+    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="36"/>
+      <c r="B72" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>0.85</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="23">
         <f t="shared" si="46"/>
         <v>-1.1378493561308156E-2</v>
       </c>
-      <c r="H72" s="29">
+      <c r="H72" s="23">
         <f t="shared" si="47"/>
         <v>7.7113884300243934E-2</v>
       </c>
-      <c r="I72" s="29">
+      <c r="I72" s="23">
         <f t="shared" si="48"/>
         <v>0.98868599666425938</v>
       </c>
     </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B73" t="s">
+        <v>581</v>
+      </c>
+      <c r="C73" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E73" s="43">
+        <v>2</v>
+      </c>
+      <c r="F73" s="43">
+        <v>3</v>
+      </c>
+      <c r="G73" s="20">
+        <f t="shared" si="46"/>
+        <v>0.89587973461402748</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="47"/>
+        <v>0.10343687723509759</v>
+      </c>
+      <c r="I73" s="20">
+        <f t="shared" si="48"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="35"/>
+      <c r="B74" t="s">
+        <v>582</v>
+      </c>
+      <c r="C74" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E74" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F74" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="G74" s="20">
+        <f t="shared" si="46"/>
+        <v>-1.4067053583800182</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="47"/>
+        <v>0.10343687723509751</v>
+      </c>
+      <c r="I74" s="20">
+        <f t="shared" si="48"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="35"/>
+      <c r="B75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C75" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E75" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="F75" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="G75" s="20">
+        <f t="shared" si="46"/>
+        <v>-1.1512925464970227</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="47"/>
+        <v>0.1199010882223001</v>
+      </c>
+      <c r="I75" s="20">
+        <f t="shared" si="48"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="35"/>
+      <c r="B76" t="s">
+        <v>584</v>
+      </c>
+      <c r="C76" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E76" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="F76" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="20">
+        <f t="shared" si="46"/>
+        <v>-0.94855999244294065</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="47"/>
+        <v>0.13031505369366947</v>
+      </c>
+      <c r="I76" s="20">
+        <f t="shared" si="48"/>
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A73:A76"/>
     <mergeCell ref="A67:A72"/>
     <mergeCell ref="A37:A66"/>
     <mergeCell ref="A28:A31"/>
